--- a/src/main/resources/template/excel/export/CashDailyReport_SYY.xlsx
+++ b/src/main/resources/template/excel/export/CashDailyReport_SYY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace_jxc\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="S4")</t>
+          <t>jx:area(lastCell="T4")</t>
         </r>
       </text>
     </comment>
@@ -54,7 +54,7 @@
             <charset val="134"/>
           </rPr>
           <t>YSCGD:
-jx:each(items="reportList" var="obj" lastCell="S4")</t>
+jx:each(items="reportList" var="obj" lastCell="T4")</t>
         </r>
       </text>
     </comment>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>收银日报</t>
   </si>
@@ -405,6 +405,25 @@
         <charset val="134"/>
       </rPr>
       <t>}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>线下代金券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.offD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jq}</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -600,10 +619,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -624,74 +643,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -711,7 +662,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -990,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1002,13 +953,13 @@
     <col min="2" max="2" width="18.625" customWidth="1"/>
     <col min="3" max="3" width="12.625" customWidth="1"/>
     <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="15" width="12.625" customWidth="1"/>
-    <col min="16" max="16" width="10.875" customWidth="1"/>
-    <col min="17" max="17" width="11" customWidth="1"/>
-    <col min="18" max="18" width="11.25" customWidth="1"/>
+    <col min="5" max="16" width="12.625" customWidth="1"/>
+    <col min="17" max="17" width="10.875" customWidth="1"/>
+    <col min="18" max="18" width="11" customWidth="1"/>
+    <col min="19" max="19" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1030,8 +981,9 @@
       <c r="Q1" s="9"/>
       <c r="R1" s="9"/>
       <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
     </row>
-    <row r="2" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -1068,32 +1020,35 @@
         <v>4</v>
       </c>
       <c r="N2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+    <row r="3" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
       <c r="H3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1106,16 +1061,17 @@
       <c r="K3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
     </row>
-    <row r="4" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1156,33 +1112,31 @@
         <v>30</v>
       </c>
       <c r="N4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="S2:S3"/>
+  <mergeCells count="19">
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="T2:T3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
@@ -1191,9 +1145,15 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
